--- a/Final Project/Database/Restaurant Database.xlsx
+++ b/Final Project/Database/Restaurant Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIU\WAP\Git\wap\Final Project\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68E2A2-2B84-4127-8ACB-57B8F9D7DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E2E4-F49B-440D-AFAA-564CB8EF601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservation" sheetId="1" r:id="rId1"/>
@@ -229,18 +229,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -543,16 +539,16 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -588,7 +584,7 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -602,7 +598,7 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -616,7 +612,7 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -628,7 +624,7 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -666,16 +662,16 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -735,16 +731,16 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -780,7 +776,7 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -794,7 +790,7 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -808,7 +804,7 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -820,10 +816,10 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -841,7 +837,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -858,16 +854,16 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -907,7 +903,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -937,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AD9A70-C4D8-4576-A67B-944BF3E33EE9}">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -955,16 +951,16 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1000,7 +996,7 @@
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1014,7 +1010,7 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1028,7 +1024,7 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1042,7 +1038,7 @@
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1051,10 +1047,10 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1092,16 +1088,16 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1151,7 +1147,7 @@
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1165,7 +1161,7 @@
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">

--- a/Final Project/Database/Restaurant Database.xlsx
+++ b/Final Project/Database/Restaurant Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIU\WAP\Git\wap\Final Project\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E2E4-F49B-440D-AFAA-564CB8EF601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFEE63-5264-4CD0-AB2A-94E866AF00DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Dish" sheetId="3" r:id="rId3"/>
     <sheet name="Review" sheetId="7" r:id="rId4"/>
     <sheet name="Order" sheetId="5" r:id="rId5"/>
-    <sheet name="OrderDetail" sheetId="6" r:id="rId6"/>
+    <sheet name="Order_Detail" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>Reservation table</t>
   </si>
@@ -92,9 +92,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>ingredient</t>
-  </si>
-  <si>
     <t>noOfPerson</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>VARCHAR(15)</t>
   </si>
   <si>
-    <t>discription</t>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>ordEmail</t>
   </si>
   <si>
-    <t>Order Detail</t>
-  </si>
-  <si>
     <t>odId</t>
   </si>
   <si>
@@ -165,6 +156,21 @@
   </si>
   <si>
     <t>revDetail</t>
+  </si>
+  <si>
+    <t>Order_Detail</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>dishImageURL</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -229,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -239,6 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -602,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -616,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -628,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -697,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -711,10 +721,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA833EC6-9567-4F70-A0FB-0568A345BAAA}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -727,7 +737,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -766,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -777,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -794,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -805,10 +815,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -825,6 +835,18 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,7 +872,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -872,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -900,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -914,10 +936,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -933,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AD9A70-C4D8-4576-A67B-944BF3E33EE9}">
   <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -947,7 +969,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -969,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -983,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -997,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1011,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1025,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -1039,10 +1061,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1051,10 +1073,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -1071,7 +1093,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1106,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1106,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -1120,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1151,7 +1173,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1162,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>

--- a/Final Project/Database/Restaurant Database.xlsx
+++ b/Final Project/Database/Restaurant Database.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIU\WAP\Git\wap\Final Project\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFEE63-5264-4CD0-AB2A-94E866AF00DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B3695-EB7A-4D92-826E-64DB2FC7922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservation" sheetId="1" r:id="rId1"/>
     <sheet name="Category" sheetId="2" r:id="rId2"/>
     <sheet name="Dish" sheetId="3" r:id="rId3"/>
-    <sheet name="Review" sheetId="7" r:id="rId4"/>
-    <sheet name="Order" sheetId="5" r:id="rId5"/>
-    <sheet name="Order_Detail" sheetId="6" r:id="rId6"/>
+    <sheet name="Nutrition" sheetId="8" r:id="rId4"/>
+    <sheet name="Review" sheetId="7" r:id="rId5"/>
+    <sheet name="Order" sheetId="5" r:id="rId6"/>
+    <sheet name="Order_Detail" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
   <si>
     <t>Reservation table</t>
   </si>
@@ -171,13 +172,34 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>cookingTime</t>
+  </si>
+  <si>
+    <t>preprationTime</t>
+  </si>
+  <si>
+    <t>servings</t>
+  </si>
+  <si>
+    <t>nutId</t>
+  </si>
+  <si>
+    <t>nutrition</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Nutrition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +211,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -245,10 +274,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,10 +751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA833EC6-9567-4F70-A0FB-0568A345BAAA}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -837,16 +867,52 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,6 +921,101 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B6316B-0600-457A-97C4-DA23F794AF14}">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932E1E1-A14E-44CF-86C3-F2F290B9CBCC}">
   <dimension ref="B2:E8"/>
   <sheetViews>
@@ -951,7 +1112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AD9A70-C4D8-4576-A67B-944BF3E33EE9}">
   <dimension ref="B2:E11"/>
   <sheetViews>
@@ -1088,7 +1249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74101F30-1C50-4D9F-8E17-5294B04D9D33}">
   <dimension ref="B2:E9"/>
   <sheetViews>

--- a/Final Project/Database/Restaurant Database.xlsx
+++ b/Final Project/Database/Restaurant Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIU\WAP\Git\wap\Final Project\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B3695-EB7A-4D92-826E-64DB2FC7922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789BD5AE-2443-4D79-A128-B9DA2AA7E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservation" sheetId="1" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA833EC6-9567-4F70-A0FB-0568A345BAAA}">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B6316B-0600-457A-97C4-DA23F794AF14}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
